--- a/GRACE SANAYIAN.xlsx
+++ b/GRACE SANAYIAN.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\ASSETFLOW-PC\Desktop\FLORENCE\CLIENTS\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="960" yWindow="645" windowWidth="17715" windowHeight="11250" activeTab="4"/>
+    <workbookView xWindow="960" yWindow="645" windowWidth="17715" windowHeight="11250" firstSheet="3" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="AUGUST 21" sheetId="1" r:id="rId1"/>
@@ -21,12 +16,12 @@
   <externalReferences>
     <externalReference r:id="rId6"/>
   </externalReferences>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="590" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="597" uniqueCount="78">
   <si>
     <t xml:space="preserve">RENT STATEMENT </t>
   </si>
@@ -249,11 +244,23 @@
   <si>
     <t>FOR THE MONTH OF DECEMBER 2021</t>
   </si>
+  <si>
+    <t>PAID ON 10/12</t>
+  </si>
+  <si>
+    <t>DEC</t>
+  </si>
+  <si>
+    <t>PAID ON 17/12</t>
+  </si>
+  <si>
+    <t>DECEMBER</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="3">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -571,17 +578,12 @@
       <sheetName val="DECEMBER 21"/>
     </sheetNames>
     <sheetDataSet>
-      <sheetData sheetId="0" refreshError="1"/>
-      <sheetData sheetId="1" refreshError="1"/>
-      <sheetData sheetId="2" refreshError="1"/>
-      <sheetData sheetId="3" refreshError="1"/>
-      <sheetData sheetId="4" refreshError="1"/>
+      <sheetData sheetId="0"/>
+      <sheetData sheetId="1"/>
+      <sheetData sheetId="2"/>
+      <sheetData sheetId="3"/>
+      <sheetData sheetId="4"/>
       <sheetData sheetId="5">
-        <row r="21">
-          <cell r="E21">
-            <v>43000</v>
-          </cell>
-        </row>
         <row r="22">
           <cell r="H22">
             <v>6000</v>
@@ -593,13 +595,13 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="6" refreshError="1"/>
-      <sheetData sheetId="7" refreshError="1"/>
-      <sheetData sheetId="8" refreshError="1"/>
-      <sheetData sheetId="9" refreshError="1"/>
-      <sheetData sheetId="10" refreshError="1"/>
-      <sheetData sheetId="11" refreshError="1"/>
-      <sheetData sheetId="12" refreshError="1"/>
+      <sheetData sheetId="6"/>
+      <sheetData sheetId="7"/>
+      <sheetData sheetId="8"/>
+      <sheetData sheetId="9"/>
+      <sheetData sheetId="10"/>
+      <sheetData sheetId="11"/>
+      <sheetData sheetId="12"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -648,7 +650,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -683,7 +685,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -4931,8 +4933,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:V46"/>
   <sheetViews>
-    <sheetView topLeftCell="J7" workbookViewId="0">
-      <selection activeCell="S39" sqref="S39"/>
+    <sheetView topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="M41" sqref="M41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6528,10 +6530,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:V46"/>
+  <dimension ref="A2:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="J34" sqref="J34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6710,7 +6712,7 @@
       <c r="N6" s="13"/>
       <c r="O6" s="49"/>
       <c r="P6" s="49">
-        <f>'OCTOBER 21'!V6</f>
+        <f>'NOVEMBER 21'!V6:V12</f>
         <v>0</v>
       </c>
       <c r="Q6" s="16">
@@ -6726,10 +6728,12 @@
         <f>Q6+R6+S6+P6</f>
         <v>12600</v>
       </c>
-      <c r="U6" s="16"/>
+      <c r="U6" s="16">
+        <v>12600</v>
+      </c>
       <c r="V6" s="17">
         <f>T6-U6</f>
-        <v>12600</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:22" x14ac:dyDescent="0.25">
@@ -6764,26 +6768,26 @@
       </c>
       <c r="O7" s="49"/>
       <c r="P7" s="49">
-        <f>'OCTOBER 21'!V7</f>
+        <f>'NOVEMBER 21'!V7:V13</f>
         <v>300</v>
       </c>
       <c r="Q7" s="16">
         <v>12000</v>
       </c>
-      <c r="R7" s="15">
-        <v>1200</v>
-      </c>
+      <c r="R7" s="15"/>
       <c r="S7" s="16">
         <v>300</v>
       </c>
       <c r="T7" s="16">
         <f t="shared" ref="T7:T12" si="2">Q7+R7+S7+P7</f>
-        <v>13800</v>
-      </c>
-      <c r="U7" s="16"/>
+        <v>12600</v>
+      </c>
+      <c r="U7" s="16">
+        <v>12600</v>
+      </c>
       <c r="V7" s="17">
         <f t="shared" ref="V7:V12" si="3">T7-U7</f>
-        <v>13800</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:22" x14ac:dyDescent="0.25">
@@ -6826,8 +6830,8 @@
       </c>
       <c r="O8" s="49"/>
       <c r="P8" s="49">
-        <f>'OCTOBER 21'!V8</f>
-        <v>100</v>
+        <f>'NOVEMBER 21'!V8:V14</f>
+        <v>200</v>
       </c>
       <c r="Q8" s="16">
         <v>12000</v>
@@ -6840,14 +6844,14 @@
       </c>
       <c r="T8" s="16">
         <f t="shared" si="2"/>
-        <v>13450</v>
+        <v>13550</v>
       </c>
       <c r="U8" s="16">
         <v>13250</v>
       </c>
       <c r="V8" s="17">
-        <f t="shared" si="3"/>
-        <v>200</v>
+        <f>T8-U8</f>
+        <v>300</v>
       </c>
     </row>
     <row r="9" spans="1:22" x14ac:dyDescent="0.25">
@@ -6882,26 +6886,28 @@
       </c>
       <c r="O9" s="49"/>
       <c r="P9" s="49">
-        <f>'OCTOBER 21'!V9</f>
-        <v>300</v>
+        <f>'NOVEMBER 21'!V9:V15</f>
+        <v>400</v>
       </c>
       <c r="Q9" s="16">
         <v>10000</v>
       </c>
       <c r="R9" s="15">
-        <v>450</v>
+        <v>650</v>
       </c>
       <c r="S9" s="16">
         <v>300</v>
       </c>
       <c r="T9" s="16">
         <f t="shared" si="2"/>
-        <v>11050</v>
-      </c>
-      <c r="U9" s="16"/>
+        <v>11350</v>
+      </c>
+      <c r="U9" s="16">
+        <v>10650</v>
+      </c>
       <c r="V9" s="17">
-        <f t="shared" si="3"/>
-        <v>11050</v>
+        <f>T9-U9</f>
+        <v>700</v>
       </c>
     </row>
     <row r="10" spans="1:22" x14ac:dyDescent="0.25">
@@ -6944,8 +6950,8 @@
       </c>
       <c r="O10" s="49"/>
       <c r="P10" s="49">
-        <f>'OCTOBER 21'!V10</f>
-        <v>300</v>
+        <f>'NOVEMBER 21'!V10:V16</f>
+        <v>600</v>
       </c>
       <c r="Q10" s="16">
         <v>10000</v>
@@ -6958,12 +6964,14 @@
       </c>
       <c r="T10" s="16">
         <f t="shared" si="2"/>
-        <v>10750</v>
-      </c>
-      <c r="U10" s="16"/>
+        <v>11050</v>
+      </c>
+      <c r="U10" s="16">
+        <v>10300</v>
+      </c>
       <c r="V10" s="17">
-        <f t="shared" si="3"/>
-        <v>10750</v>
+        <f>T10-U10</f>
+        <v>750</v>
       </c>
     </row>
     <row r="11" spans="1:22" x14ac:dyDescent="0.25">
@@ -6998,8 +7006,8 @@
       </c>
       <c r="O11" s="49"/>
       <c r="P11" s="49">
-        <f>'OCTOBER 21'!V11</f>
-        <v>200</v>
+        <f>'NOVEMBER 21'!V11:V17</f>
+        <v>300</v>
       </c>
       <c r="Q11" s="16">
         <v>10000</v>
@@ -7012,12 +7020,12 @@
       </c>
       <c r="T11" s="16">
         <f t="shared" si="2"/>
-        <v>11100</v>
+        <v>11200</v>
       </c>
       <c r="U11" s="16"/>
       <c r="V11" s="17">
-        <f t="shared" si="3"/>
-        <v>11100</v>
+        <f>T11-U11</f>
+        <v>11200</v>
       </c>
     </row>
     <row r="12" spans="1:22" x14ac:dyDescent="0.25">
@@ -7055,28 +7063,26 @@
       </c>
       <c r="O12" s="49"/>
       <c r="P12" s="49">
-        <f>'OCTOBER 21'!V12</f>
+        <f>'NOVEMBER 21'!V12:V18</f>
         <v>0</v>
       </c>
       <c r="Q12" s="16">
         <v>8500</v>
       </c>
-      <c r="R12" s="15">
-        <v>300</v>
-      </c>
+      <c r="R12" s="15"/>
       <c r="S12" s="16">
         <v>300</v>
       </c>
       <c r="T12" s="16">
         <f t="shared" si="2"/>
-        <v>9100</v>
+        <v>8800</v>
       </c>
       <c r="U12" s="16">
         <v>8800</v>
       </c>
       <c r="V12" s="17">
         <f t="shared" si="3"/>
-        <v>300</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:22" x14ac:dyDescent="0.25">
@@ -7116,7 +7122,7 @@
       <c r="O13" s="51"/>
       <c r="P13" s="51">
         <f>SUM(P6:P12)</f>
-        <v>1200</v>
+        <v>1800</v>
       </c>
       <c r="Q13" s="52">
         <f t="shared" ref="Q13:U13" si="4">SUM(Q6:Q12)</f>
@@ -7124,7 +7130,7 @@
       </c>
       <c r="R13" s="15">
         <f t="shared" si="4"/>
-        <v>4050</v>
+        <v>2750</v>
       </c>
       <c r="S13" s="26">
         <f>SUM(S6:S12)</f>
@@ -7132,15 +7138,15 @@
       </c>
       <c r="T13" s="16">
         <f>SUM(T6:T12)</f>
-        <v>81850</v>
+        <v>81150</v>
       </c>
       <c r="U13" s="16">
         <f t="shared" si="4"/>
-        <v>22050</v>
+        <v>68200</v>
       </c>
       <c r="V13" s="16">
         <f>SUM(V6:V12)</f>
-        <v>59800</v>
+        <v>12950</v>
       </c>
     </row>
     <row r="14" spans="1:22" x14ac:dyDescent="0.25">
@@ -7339,13 +7345,15 @@
         <f t="shared" si="0"/>
         <v>6500</v>
       </c>
-      <c r="I19" s="16"/>
+      <c r="I19" s="16">
+        <v>6500</v>
+      </c>
       <c r="J19" s="17">
         <f t="shared" si="1"/>
-        <v>6500</v>
+        <v>0</v>
       </c>
       <c r="M19" s="25" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="N19" s="37">
         <f>Q13</f>
@@ -7354,11 +7362,11 @@
       <c r="O19" s="25"/>
       <c r="P19" s="25"/>
       <c r="Q19" s="25" t="s">
-        <v>69</v>
+        <v>77</v>
       </c>
       <c r="R19" s="37">
         <f>U13</f>
-        <v>22050</v>
+        <v>68200</v>
       </c>
       <c r="S19" s="25"/>
       <c r="T19" s="25"/>
@@ -7413,6 +7421,7 @@
       </c>
       <c r="S20" s="25"/>
       <c r="T20" s="25"/>
+      <c r="U20" s="54"/>
     </row>
     <row r="21" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A21" s="12" t="s">
@@ -7480,7 +7489,7 @@
       </c>
       <c r="N22" s="37">
         <f>R13</f>
-        <v>4050</v>
+        <v>2750</v>
       </c>
       <c r="O22" s="25"/>
       <c r="P22" s="25"/>
@@ -7517,11 +7526,11 @@
       </c>
       <c r="I23" s="16">
         <f t="shared" si="5"/>
-        <v>17800</v>
+        <v>24300</v>
       </c>
       <c r="J23" s="16">
         <f t="shared" si="5"/>
-        <v>9000</v>
+        <v>2500</v>
       </c>
       <c r="M23" s="25" t="s">
         <v>49</v>
@@ -7538,10 +7547,16 @@
       <c r="T23" s="25"/>
     </row>
     <row r="24" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="F24" s="15">
-        <f>'[1]MAY 21'!H22:H38</f>
-        <v>0</v>
-      </c>
+      <c r="A24" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B24" s="28"/>
+      <c r="C24" s="28"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="29"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="31"/>
+      <c r="H24" s="32"/>
       <c r="J24" s="27"/>
       <c r="M24" s="25" t="s">
         <v>21</v>
@@ -7568,6 +7583,18 @@
       <c r="V24" s="27"/>
     </row>
     <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="34" t="s">
+        <v>15</v>
+      </c>
+      <c r="B25" s="34"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="35"/>
+      <c r="E25" s="34" t="s">
+        <v>7</v>
+      </c>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
       <c r="M25" s="36" t="s">
         <v>22</v>
       </c>
@@ -7584,16 +7611,30 @@
       <c r="T25" s="25"/>
     </row>
     <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="B26" s="28"/>
-      <c r="C26" s="28"/>
-      <c r="D26" s="28"/>
-      <c r="E26" s="29"/>
-      <c r="F26" s="30"/>
-      <c r="G26" s="31"/>
-      <c r="H26" s="32"/>
+      <c r="A26" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="E26" s="36" t="s">
+        <v>16</v>
+      </c>
+      <c r="F26" s="36" t="s">
+        <v>17</v>
+      </c>
+      <c r="G26" s="36" t="s">
+        <v>18</v>
+      </c>
+      <c r="H26" s="36" t="s">
+        <v>19</v>
+      </c>
       <c r="I26" s="31"/>
       <c r="J26" s="33"/>
       <c r="M26" s="40" t="s">
@@ -7616,52 +7657,49 @@
       <c r="V26" s="33"/>
     </row>
     <row r="27" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A27" s="34" t="s">
-        <v>15</v>
-      </c>
-      <c r="B27" s="34"/>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
-      <c r="E27" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
+      <c r="A27" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="B27" s="37">
+        <f>E23</f>
+        <v>24000</v>
+      </c>
+      <c r="C27" s="25"/>
+      <c r="D27" s="25"/>
+      <c r="E27" s="25" t="s">
+        <v>75</v>
+      </c>
+      <c r="F27" s="37">
+        <f>I23</f>
+        <v>24300</v>
+      </c>
+      <c r="G27" s="25"/>
+      <c r="H27" s="25"/>
       <c r="M27" s="39"/>
       <c r="P27" s="41"/>
       <c r="Q27" s="39"/>
       <c r="T27" s="25"/>
-      <c r="U27" s="54">
-        <f>N19-O24</f>
-        <v>67050</v>
-      </c>
+      <c r="U27" s="54"/>
     </row>
     <row r="28" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A28" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="B28" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="C28" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="D28" s="36" t="s">
-        <v>19</v>
-      </c>
-      <c r="E28" s="36" t="s">
-        <v>16</v>
-      </c>
-      <c r="F28" s="36" t="s">
-        <v>17</v>
-      </c>
-      <c r="G28" s="36" t="s">
-        <v>18</v>
-      </c>
-      <c r="H28" s="36" t="s">
-        <v>19</v>
-      </c>
+      <c r="A28" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B28" s="37">
+        <f>'NOVEMBER 21'!D44</f>
+        <v>0</v>
+      </c>
+      <c r="C28" s="25"/>
+      <c r="D28" s="25"/>
+      <c r="E28" s="25" t="s">
+        <v>20</v>
+      </c>
+      <c r="F28" s="37">
+        <f>'NOVEMBER 21'!H44</f>
+        <v>0</v>
+      </c>
+      <c r="G28" s="25"/>
+      <c r="H28" s="25"/>
       <c r="M28" s="39" t="s">
         <v>61</v>
       </c>
@@ -7674,32 +7712,18 @@
       <c r="R28" s="38"/>
       <c r="S28" s="25"/>
       <c r="T28" s="25"/>
-      <c r="U28" s="54">
-        <f>U27-O29-O31</f>
-        <v>7717</v>
-      </c>
-      <c r="V28" s="54">
-        <f>U28+N23+N22</f>
-        <v>13867</v>
-      </c>
+      <c r="U28" s="54"/>
+      <c r="V28" s="54"/>
     </row>
     <row r="29" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A29" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="B29" s="37">
-        <f>E23</f>
-        <v>24000</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="B29" s="37"/>
       <c r="C29" s="25"/>
       <c r="D29" s="25"/>
-      <c r="E29" s="25" t="s">
-        <v>69</v>
-      </c>
-      <c r="F29" s="37">
-        <f>I23</f>
-        <v>17800</v>
-      </c>
+      <c r="E29" s="25"/>
+      <c r="F29" s="37"/>
       <c r="G29" s="25"/>
       <c r="H29" s="25"/>
       <c r="M29" s="39" t="s">
@@ -7718,40 +7742,47 @@
         <v>53333</v>
       </c>
       <c r="T29" s="25"/>
+      <c r="V29" s="54"/>
     </row>
     <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A30" s="25" t="s">
-        <v>20</v>
+        <v>48</v>
       </c>
       <c r="B30" s="37">
-        <f>'NOVEMBER 21'!D44</f>
-        <v>0</v>
+        <f>F23</f>
+        <v>1800</v>
       </c>
       <c r="C30" s="25"/>
       <c r="D30" s="25"/>
-      <c r="E30" s="25" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30" s="37">
-        <f>'NOVEMBER 21'!H44</f>
-        <v>0</v>
-      </c>
+      <c r="E30" s="25"/>
+      <c r="F30" s="37"/>
       <c r="G30" s="25"/>
       <c r="H30" s="25"/>
-      <c r="M30" s="39"/>
+      <c r="M30" s="39" t="s">
+        <v>49</v>
+      </c>
       <c r="N30" s="25"/>
-      <c r="O30" s="41"/>
+      <c r="O30" s="41">
+        <v>2100</v>
+      </c>
       <c r="P30" s="25"/>
-      <c r="Q30" s="39"/>
+      <c r="Q30" s="39" t="s">
+        <v>49</v>
+      </c>
       <c r="R30" s="25"/>
-      <c r="S30" s="41"/>
+      <c r="S30" s="41">
+        <v>2100</v>
+      </c>
       <c r="T30" s="25"/>
     </row>
     <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A31" s="25" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31" s="37"/>
+        <v>49</v>
+      </c>
+      <c r="B31" s="37">
+        <f>G23</f>
+        <v>1000</v>
+      </c>
       <c r="C31" s="25"/>
       <c r="D31" s="25"/>
       <c r="E31" s="25"/>
@@ -7766,46 +7797,68 @@
         <v>6000</v>
       </c>
       <c r="P31" s="25"/>
-      <c r="Q31" s="39"/>
+      <c r="Q31" s="39" t="s">
+        <v>70</v>
+      </c>
       <c r="R31" s="25"/>
-      <c r="S31" s="41"/>
+      <c r="S31" s="41">
+        <v>6000</v>
+      </c>
       <c r="T31" s="25"/>
     </row>
     <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A32" s="25" t="s">
-        <v>48</v>
-      </c>
-      <c r="B32" s="37">
-        <f>F23</f>
-        <v>1800</v>
-      </c>
-      <c r="C32" s="25"/>
+        <v>21</v>
+      </c>
+      <c r="B32" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="C32" s="37">
+        <f>B32*B27</f>
+        <v>2400</v>
+      </c>
       <c r="D32" s="25"/>
-      <c r="E32" s="25"/>
-      <c r="F32" s="37"/>
-      <c r="G32" s="25"/>
+      <c r="E32" s="25" t="s">
+        <v>21</v>
+      </c>
+      <c r="F32" s="38">
+        <v>0.1</v>
+      </c>
+      <c r="G32" s="37">
+        <f>F32*B27</f>
+        <v>2400</v>
+      </c>
       <c r="H32" s="25"/>
-      <c r="M32" s="39"/>
+      <c r="M32" s="39" t="s">
+        <v>76</v>
+      </c>
       <c r="N32" s="25"/>
-      <c r="O32" s="41"/>
+      <c r="O32" s="41">
+        <v>13617</v>
+      </c>
       <c r="P32" s="25"/>
-      <c r="Q32" s="39"/>
+      <c r="Q32" s="39" t="s">
+        <v>76</v>
+      </c>
       <c r="R32" s="25"/>
-      <c r="S32" s="41"/>
+      <c r="S32" s="41">
+        <v>13617</v>
+      </c>
       <c r="T32" s="25"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A33" s="25" t="s">
-        <v>49</v>
-      </c>
-      <c r="B33" s="37">
-        <f>G23</f>
-        <v>1000</v>
+      <c r="A33" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="B33" s="25" t="s">
+        <v>23</v>
       </c>
       <c r="C33" s="25"/>
       <c r="D33" s="25"/>
-      <c r="E33" s="25"/>
-      <c r="F33" s="37"/>
+      <c r="E33" s="36" t="s">
+        <v>22</v>
+      </c>
+      <c r="F33" s="39"/>
       <c r="G33" s="25"/>
       <c r="H33" s="25"/>
       <c r="M33" s="39"/>
@@ -7818,27 +7871,21 @@
       <c r="T33" s="25"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="25" t="s">
-        <v>21</v>
+      <c r="A34" s="40" t="s">
+        <v>24</v>
       </c>
       <c r="B34" s="38">
-        <v>0.1</v>
-      </c>
-      <c r="C34" s="37">
-        <f>B34*B29</f>
-        <v>2400</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="C34" s="41"/>
       <c r="D34" s="25"/>
-      <c r="E34" s="25" t="s">
-        <v>21</v>
+      <c r="E34" s="40" t="s">
+        <v>24</v>
       </c>
       <c r="F34" s="38">
-        <v>0.1</v>
-      </c>
-      <c r="G34" s="37">
-        <f>F34*B29</f>
-        <v>2400</v>
-      </c>
+        <v>0.3</v>
+      </c>
+      <c r="G34" s="41"/>
       <c r="H34" s="25"/>
       <c r="J34" s="54"/>
       <c r="M34" s="36" t="s">
@@ -7846,47 +7893,47 @@
       </c>
       <c r="N34" s="42">
         <f>N19+N22+N23+N20-O24</f>
-        <v>76350</v>
+        <v>75050</v>
       </c>
       <c r="O34" s="42">
         <f>SUM(O26:O33)</f>
-        <v>59333</v>
+        <v>75050</v>
       </c>
       <c r="P34" s="42">
         <f>N34-O34</f>
-        <v>17017</v>
+        <v>0</v>
       </c>
       <c r="Q34" s="36" t="s">
         <v>13</v>
       </c>
       <c r="R34" s="42">
         <f>R19+R20+R23-S24</f>
-        <v>15950</v>
+        <v>62100</v>
       </c>
       <c r="S34" s="42">
         <f>SUM(S26:S33)</f>
-        <v>53333</v>
+        <v>75050</v>
       </c>
       <c r="T34" s="42">
         <f>R34-S34</f>
-        <v>-37383</v>
+        <v>-12950</v>
       </c>
       <c r="V34" s="54"/>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="B35" s="25" t="s">
-        <v>23</v>
-      </c>
-      <c r="C35" s="25"/>
-      <c r="D35" s="25"/>
-      <c r="E35" s="36" t="s">
-        <v>22</v>
-      </c>
-      <c r="F35" s="39"/>
-      <c r="G35" s="25"/>
+      <c r="A35" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="C35">
+        <v>24400</v>
+      </c>
+      <c r="D35" s="41"/>
+      <c r="E35" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="G35">
+        <v>24400</v>
+      </c>
       <c r="H35" s="25"/>
       <c r="J35" s="54"/>
       <c r="M35" s="43" t="s">
@@ -7906,22 +7953,36 @@
       <c r="V35" s="27"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="B36" s="38">
-        <v>0.3</v>
-      </c>
-      <c r="C36" s="41"/>
-      <c r="D36" s="25"/>
-      <c r="E36" s="40" t="s">
-        <v>24</v>
-      </c>
-      <c r="F36" s="38">
-        <v>0.3</v>
-      </c>
-      <c r="G36" s="41"/>
-      <c r="H36" s="25"/>
+      <c r="A36" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="B36" s="42">
+        <f>B27+B30+B31+B28-C32</f>
+        <v>24400</v>
+      </c>
+      <c r="C36" s="42">
+        <f>SUM(C34:C35)</f>
+        <v>24400</v>
+      </c>
+      <c r="D36" s="42">
+        <f>B36-C36</f>
+        <v>0</v>
+      </c>
+      <c r="E36" s="36" t="s">
+        <v>13</v>
+      </c>
+      <c r="F36" s="42">
+        <f>F27+F28+F31-G32</f>
+        <v>21900</v>
+      </c>
+      <c r="G36" s="42">
+        <f>SUM(G34:G35)</f>
+        <v>24400</v>
+      </c>
+      <c r="H36" s="42">
+        <f>F36-G36</f>
+        <v>-2500</v>
+      </c>
       <c r="J36" s="54"/>
       <c r="M36" s="43" t="s">
         <v>28</v>
@@ -7940,134 +8001,36 @@
       <c r="V36" s="27"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="39"/>
-      <c r="D37" s="41"/>
-      <c r="E37" s="39"/>
-      <c r="H37" s="25"/>
+      <c r="A37" s="43" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" s="44"/>
+      <c r="C37" s="44" t="s">
+        <v>26</v>
+      </c>
+      <c r="D37" s="45"/>
+      <c r="E37" s="43"/>
+      <c r="F37" s="43" t="s">
+        <v>27</v>
+      </c>
+      <c r="G37" s="3"/>
+      <c r="H37" s="3"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A38" s="39"/>
-      <c r="B38" s="38"/>
-      <c r="C38" s="25"/>
-      <c r="D38" s="25"/>
-      <c r="E38" s="39"/>
-      <c r="F38" s="38"/>
-      <c r="G38" s="25"/>
-      <c r="H38" s="25"/>
-    </row>
-    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A39" s="39"/>
-      <c r="B39" s="38"/>
-      <c r="C39" s="25"/>
-      <c r="D39" s="25"/>
-      <c r="E39" s="39"/>
-      <c r="F39" s="38"/>
-      <c r="G39" s="25"/>
-      <c r="H39" s="25"/>
-    </row>
-    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A40" s="39"/>
-      <c r="B40" s="25"/>
-      <c r="C40" s="41"/>
-      <c r="D40" s="25"/>
-      <c r="E40" s="39"/>
-      <c r="F40" s="25"/>
-      <c r="G40" s="41"/>
-      <c r="H40" s="25"/>
-    </row>
-    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A41" s="39"/>
-      <c r="B41" s="25"/>
-      <c r="C41" s="41"/>
-      <c r="D41" s="25"/>
-      <c r="E41" s="39"/>
-      <c r="F41" s="25"/>
-      <c r="G41" s="41"/>
-      <c r="H41" s="25"/>
-    </row>
-    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A42" s="39"/>
-      <c r="B42" s="25"/>
-      <c r="C42" s="41"/>
-      <c r="D42" s="25"/>
-      <c r="E42" s="39"/>
-      <c r="F42" s="25"/>
-      <c r="G42" s="41"/>
-      <c r="H42" s="25"/>
-    </row>
-    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A43" s="39"/>
-      <c r="B43" s="25"/>
-      <c r="C43" s="41"/>
-      <c r="D43" s="25"/>
-      <c r="E43" s="39"/>
-      <c r="F43" s="25"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="25"/>
-    </row>
-    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A44" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="B44" s="42">
-        <f>B29+B32+B33+B30-C34</f>
-        <v>24400</v>
-      </c>
-      <c r="C44" s="42">
-        <f>SUM(C36:C43)</f>
-        <v>0</v>
-      </c>
-      <c r="D44" s="42">
-        <f>B44-C44</f>
-        <v>24400</v>
-      </c>
-      <c r="E44" s="36" t="s">
-        <v>13</v>
-      </c>
-      <c r="F44" s="42">
-        <f>F29+F30+F33-G34</f>
-        <v>15400</v>
-      </c>
-      <c r="G44" s="42">
-        <f>SUM(G36:G43)</f>
-        <v>0</v>
-      </c>
-      <c r="H44" s="42">
-        <f>F44-G44</f>
-        <v>15400</v>
-      </c>
-    </row>
-    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A45" s="43" t="s">
-        <v>25</v>
-      </c>
-      <c r="B45" s="44"/>
-      <c r="C45" s="44" t="s">
-        <v>26</v>
-      </c>
-      <c r="D45" s="45"/>
-      <c r="E45" s="43"/>
-      <c r="F45" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="G45" s="3"/>
-      <c r="H45" s="3"/>
-    </row>
-    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A46" s="43" t="s">
+      <c r="A38" s="43" t="s">
         <v>28</v>
       </c>
-      <c r="B46" s="44"/>
-      <c r="C46" s="44" t="s">
+      <c r="B38" s="44"/>
+      <c r="C38" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="D46" s="45"/>
-      <c r="E46" s="43"/>
-      <c r="F46" s="43" t="s">
+      <c r="D38" s="45"/>
+      <c r="E38" s="43"/>
+      <c r="F38" s="43" t="s">
         <v>43</v>
       </c>
-      <c r="G46" s="3"/>
-      <c r="H46" s="3"/>
+      <c r="G38" s="3"/>
+      <c r="H38" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
